--- a/Code/Results/Cases/Case_2_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9900179301298756</v>
+        <v>1.017860154984261</v>
       </c>
       <c r="D2">
-        <v>1.009848736426447</v>
+        <v>1.023792172426138</v>
       </c>
       <c r="E2">
-        <v>1.012009813985765</v>
+        <v>1.046603232189801</v>
       </c>
       <c r="F2">
-        <v>1.016689399467857</v>
+        <v>1.050278911179785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039571063857909</v>
+        <v>1.029272293840606</v>
       </c>
       <c r="J2">
-        <v>1.012501358226705</v>
+        <v>1.023071871476029</v>
       </c>
       <c r="K2">
-        <v>1.021172546934406</v>
+        <v>1.026622570117025</v>
       </c>
       <c r="L2">
-        <v>1.023304330695172</v>
+        <v>1.049368205708639</v>
       </c>
       <c r="M2">
-        <v>1.027921019645555</v>
+        <v>1.053033630876649</v>
       </c>
       <c r="N2">
-        <v>1.008205912241398</v>
+        <v>1.01179179074138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.993767359363514</v>
+        <v>1.018653072087143</v>
       </c>
       <c r="D3">
-        <v>1.012386710283572</v>
+        <v>1.024345317934763</v>
       </c>
       <c r="E3">
-        <v>1.01642640397912</v>
+        <v>1.047630182861211</v>
       </c>
       <c r="F3">
-        <v>1.021179615629027</v>
+        <v>1.051314267519219</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040311831663244</v>
+        <v>1.029371223387494</v>
       </c>
       <c r="J3">
-        <v>1.014429386632335</v>
+        <v>1.023501680761275</v>
       </c>
       <c r="K3">
-        <v>1.022863516578583</v>
+        <v>1.026983361458274</v>
       </c>
       <c r="L3">
-        <v>1.026853333065549</v>
+        <v>1.050206273090264</v>
       </c>
       <c r="M3">
-        <v>1.031548485765763</v>
+        <v>1.053880827045953</v>
       </c>
       <c r="N3">
-        <v>1.008851481490138</v>
+        <v>1.011934849430413</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9961483101466027</v>
+        <v>1.019166666266542</v>
       </c>
       <c r="D4">
-        <v>1.014000417987601</v>
+        <v>1.024703499657061</v>
       </c>
       <c r="E4">
-        <v>1.019235929409863</v>
+        <v>1.048295892362158</v>
       </c>
       <c r="F4">
-        <v>1.024034469115021</v>
+        <v>1.051985243310545</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040771770531735</v>
+        <v>1.029434002432631</v>
       </c>
       <c r="J4">
-        <v>1.015651058367348</v>
+        <v>1.023779669073545</v>
       </c>
       <c r="K4">
-        <v>1.023932756607257</v>
+        <v>1.02721637177825</v>
       </c>
       <c r="L4">
-        <v>1.029107607383902</v>
+        <v>1.050749154597482</v>
       </c>
       <c r="M4">
-        <v>1.033851221383449</v>
+        <v>1.054429443945295</v>
       </c>
       <c r="N4">
-        <v>1.00926043324336</v>
+        <v>1.012027345339751</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9971387782119223</v>
+        <v>1.019382705088004</v>
       </c>
       <c r="D5">
-        <v>1.014672160475925</v>
+        <v>1.024854139680082</v>
       </c>
       <c r="E5">
-        <v>1.020405901671712</v>
+        <v>1.048576043728</v>
       </c>
       <c r="F5">
-        <v>1.025222950276023</v>
+        <v>1.052267567166968</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040960558344022</v>
+        <v>1.029460098475218</v>
       </c>
       <c r="J5">
-        <v>1.016158609383583</v>
+        <v>1.023896503826951</v>
       </c>
       <c r="K5">
-        <v>1.024376429895587</v>
+        <v>1.027314221424714</v>
       </c>
       <c r="L5">
-        <v>1.030045542255816</v>
+        <v>1.050977523655827</v>
       </c>
       <c r="M5">
-        <v>1.034808981808739</v>
+        <v>1.05466018297034</v>
       </c>
       <c r="N5">
-        <v>1.009430307542346</v>
+        <v>1.012066212823809</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9973044767942277</v>
+        <v>1.019418986172532</v>
       </c>
       <c r="D6">
-        <v>1.014784563249939</v>
+        <v>1.02487943629618</v>
       </c>
       <c r="E6">
-        <v>1.020601702817237</v>
+        <v>1.048623099178752</v>
       </c>
       <c r="F6">
-        <v>1.02542182725938</v>
+        <v>1.052314984954315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040991990630241</v>
+        <v>1.029464462724589</v>
       </c>
       <c r="J6">
-        <v>1.016243479740069</v>
+        <v>1.023916119014441</v>
       </c>
       <c r="K6">
-        <v>1.0244505861736</v>
+        <v>1.027330644450144</v>
       </c>
       <c r="L6">
-        <v>1.030202462597143</v>
+        <v>1.051015876104969</v>
       </c>
       <c r="M6">
-        <v>1.034969198991189</v>
+        <v>1.054698930928176</v>
       </c>
       <c r="N6">
-        <v>1.00945871148822</v>
+        <v>1.012072737789932</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9961615855922417</v>
+        <v>1.01916955250325</v>
       </c>
       <c r="D7">
-        <v>1.01400941979278</v>
+        <v>1.024705512281154</v>
       </c>
       <c r="E7">
-        <v>1.019251605924914</v>
+        <v>1.048299634631701</v>
       </c>
       <c r="F7">
-        <v>1.024050395087536</v>
+        <v>1.051989014772045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040774310990628</v>
+        <v>1.029434352294121</v>
       </c>
       <c r="J7">
-        <v>1.015657863815433</v>
+        <v>1.023781230350549</v>
       </c>
       <c r="K7">
-        <v>1.023938707747178</v>
+        <v>1.027217679675423</v>
       </c>
       <c r="L7">
-        <v>1.029120178043299</v>
+        <v>1.050752205520562</v>
       </c>
       <c r="M7">
-        <v>1.033864059097343</v>
+        <v>1.054432526697999</v>
       </c>
       <c r="N7">
-        <v>1.009262711096345</v>
+        <v>1.012027864759416</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.991294627293153</v>
+        <v>1.018128015633248</v>
       </c>
       <c r="D8">
-        <v>1.010712468928864</v>
+        <v>1.023979055758099</v>
       </c>
       <c r="E8">
-        <v>1.013512676779387</v>
+        <v>1.046950045078071</v>
       </c>
       <c r="F8">
-        <v>1.018217627641625</v>
+        <v>1.050628600507247</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03982546790981</v>
+        <v>1.029305982889699</v>
       </c>
       <c r="J8">
-        <v>1.013158403325511</v>
+        <v>1.023217153166532</v>
       </c>
       <c r="K8">
-        <v>1.02174926216778</v>
+        <v>1.026744592846055</v>
       </c>
       <c r="L8">
-        <v>1.024512669072141</v>
+        <v>1.049651310534224</v>
       </c>
       <c r="M8">
-        <v>1.029156356868017</v>
+        <v>1.053319856263462</v>
       </c>
       <c r="N8">
-        <v>1.008425934117974</v>
+        <v>1.011840152887739</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9823566841889183</v>
+        <v>1.016296775597048</v>
       </c>
       <c r="D9">
-        <v>1.004676285129646</v>
+        <v>1.022701010584787</v>
       </c>
       <c r="E9">
-        <v>1.003010523696635</v>
+        <v>1.04458116327676</v>
       </c>
       <c r="F9">
-        <v>1.007532086017633</v>
+        <v>1.048239325797189</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038001632881106</v>
+        <v>1.029070348029807</v>
       </c>
       <c r="J9">
-        <v>1.008548235283026</v>
+        <v>1.022222253644609</v>
       </c>
       <c r="K9">
-        <v>1.017693945762507</v>
+        <v>1.025907590562884</v>
       </c>
       <c r="L9">
-        <v>1.016054945360868</v>
+        <v>1.047715999971992</v>
       </c>
       <c r="M9">
-        <v>1.020504131061943</v>
+        <v>1.051362487524463</v>
       </c>
       <c r="N9">
-        <v>1.006881779005154</v>
+        <v>1.011508842385202</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9761316527657464</v>
+        <v>1.015078785971291</v>
       </c>
       <c r="D10">
-        <v>1.000488040825474</v>
+        <v>1.021850470584718</v>
       </c>
       <c r="E10">
-        <v>0.995718443154725</v>
+        <v>1.043008203591826</v>
       </c>
       <c r="F10">
-        <v>1.000105150224208</v>
+        <v>1.046651890636119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036678646587568</v>
+        <v>1.028906953157379</v>
       </c>
       <c r="J10">
-        <v>1.005325342984904</v>
+        <v>1.021558433001564</v>
       </c>
       <c r="K10">
-        <v>1.014848489131909</v>
+        <v>1.025347397387447</v>
       </c>
       <c r="L10">
-        <v>1.01016543514528</v>
+        <v>1.046428948141566</v>
       </c>
       <c r="M10">
-        <v>1.014472506410777</v>
+        <v>1.05005985802854</v>
       </c>
       <c r="N10">
-        <v>1.005801904323501</v>
+        <v>1.011287631148837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.973367406899711</v>
+        <v>1.014552075494914</v>
       </c>
       <c r="D11">
-        <v>0.9986327388952441</v>
+        <v>1.021482552432591</v>
       </c>
       <c r="E11">
-        <v>0.9924850311346984</v>
+        <v>1.042328600901717</v>
       </c>
       <c r="F11">
-        <v>0.9968102437951492</v>
+        <v>1.045965812444464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036079172640261</v>
+        <v>1.028834713537922</v>
       </c>
       <c r="J11">
-        <v>1.003891694059279</v>
+        <v>1.021270873858945</v>
       </c>
       <c r="K11">
-        <v>1.013580485902227</v>
+        <v>1.025104322325013</v>
       </c>
       <c r="L11">
-        <v>1.007550074071222</v>
+        <v>1.04587240075148</v>
       </c>
       <c r="M11">
-        <v>1.011792565994021</v>
+        <v>1.049496360037029</v>
       </c>
       <c r="N11">
-        <v>1.005321477739965</v>
+        <v>1.011191769283273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9723298054295816</v>
+        <v>1.014356536561561</v>
       </c>
       <c r="D12">
-        <v>0.9979370662106425</v>
+        <v>1.0213459487802</v>
       </c>
       <c r="E12">
-        <v>0.991271962652559</v>
+        <v>1.042076392471236</v>
       </c>
       <c r="F12">
-        <v>0.9955738573361871</v>
+        <v>1.045711167650365</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035852392745497</v>
+        <v>1.028807657481865</v>
       </c>
       <c r="J12">
-        <v>1.003353204489059</v>
+        <v>1.021164044616794</v>
       </c>
       <c r="K12">
-        <v>1.013103895784248</v>
+        <v>1.025013958312579</v>
       </c>
       <c r="L12">
-        <v>1.006568310437248</v>
+        <v>1.04566578855496</v>
       </c>
       <c r="M12">
-        <v>1.010786349387143</v>
+        <v>1.049287135349576</v>
       </c>
       <c r="N12">
-        <v>1.005141018772066</v>
+        <v>1.011156150917967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9725528733593989</v>
+        <v>1.014398475559456</v>
       </c>
       <c r="D13">
-        <v>0.998086590184427</v>
+        <v>1.021375248095908</v>
       </c>
       <c r="E13">
-        <v>0.9915327252043923</v>
+        <v>1.04213048178009</v>
       </c>
       <c r="F13">
-        <v>0.995839643394803</v>
+        <v>1.045765780971978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035901225575052</v>
+        <v>1.028813471181433</v>
       </c>
       <c r="J13">
-        <v>1.003468986471655</v>
+        <v>1.021186960601979</v>
       </c>
       <c r="K13">
-        <v>1.013206382675091</v>
+        <v>1.025033345080206</v>
       </c>
       <c r="L13">
-        <v>1.006779376845422</v>
+        <v>1.045710102385994</v>
       </c>
       <c r="M13">
-        <v>1.011002682234117</v>
+        <v>1.049332010957267</v>
       </c>
       <c r="N13">
-        <v>1.005179819983869</v>
+        <v>1.011163791669456</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9732818625570816</v>
+        <v>1.014535910038956</v>
       </c>
       <c r="D14">
-        <v>0.9985753691385529</v>
+        <v>1.021471259548355</v>
       </c>
       <c r="E14">
-        <v>0.9923850078388341</v>
+        <v>1.042307748652428</v>
       </c>
       <c r="F14">
-        <v>0.9967083028043005</v>
+        <v>1.045944759437897</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036060511420359</v>
+        <v>1.028832481622496</v>
       </c>
       <c r="J14">
-        <v>1.003847305552464</v>
+        <v>1.021262043660237</v>
       </c>
       <c r="K14">
-        <v>1.013541206217258</v>
+        <v>1.025096854333056</v>
       </c>
       <c r="L14">
-        <v>1.007469134419237</v>
+        <v>1.04585531978614</v>
       </c>
       <c r="M14">
-        <v>1.011709614592999</v>
+        <v>1.049479063748487</v>
       </c>
       <c r="N14">
-        <v>1.005306602364759</v>
+        <v>1.011188825280123</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9737295651226031</v>
+        <v>1.014620601890136</v>
       </c>
       <c r="D15">
-        <v>0.9988756486502833</v>
+        <v>1.021530423048647</v>
       </c>
       <c r="E15">
-        <v>0.9929085128707381</v>
+        <v>1.042416998636491</v>
       </c>
       <c r="F15">
-        <v>0.9972418346867938</v>
+        <v>1.046055059876761</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036158104839351</v>
+        <v>1.02884416504484</v>
       </c>
       <c r="J15">
-        <v>1.004079602041693</v>
+        <v>1.02130830259486</v>
       </c>
       <c r="K15">
-        <v>1.013746754065006</v>
+        <v>1.025135974561732</v>
       </c>
       <c r="L15">
-        <v>1.007892735829537</v>
+        <v>1.045944808190635</v>
       </c>
       <c r="M15">
-        <v>1.012143736042923</v>
+        <v>1.049569678930006</v>
       </c>
       <c r="N15">
-        <v>1.005384448761534</v>
+        <v>1.01120424786846</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9763136153403443</v>
+        <v>1.015113756620234</v>
       </c>
       <c r="D16">
-        <v>1.000610269638448</v>
+        <v>1.021874896072725</v>
       </c>
       <c r="E16">
-        <v>0.9959313819604952</v>
+        <v>1.043053338258629</v>
       </c>
       <c r="F16">
-        <v>1.000322104007297</v>
+        <v>1.046697450697222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036717861746495</v>
+        <v>1.028911716151467</v>
       </c>
       <c r="J16">
-        <v>1.005419666166874</v>
+        <v>1.021577514913179</v>
       </c>
       <c r="K16">
-        <v>1.014931868839964</v>
+        <v>1.025363518881437</v>
       </c>
       <c r="L16">
-        <v>1.01033759216297</v>
+        <v>1.046465900334925</v>
       </c>
       <c r="M16">
-        <v>1.014648884549064</v>
+        <v>1.050097267194315</v>
       </c>
       <c r="N16">
-        <v>1.005833511627453</v>
+        <v>1.01129399162009</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9779157634763728</v>
+        <v>1.015423284605628</v>
       </c>
       <c r="D17">
-        <v>1.001686993744836</v>
+        <v>1.022091075539272</v>
       </c>
       <c r="E17">
-        <v>0.9978067948189417</v>
+        <v>1.043452899400785</v>
       </c>
       <c r="F17">
-        <v>1.00223268515075</v>
+        <v>1.047100752109539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037061781867494</v>
+        <v>1.028953691065352</v>
       </c>
       <c r="J17">
-        <v>1.00624988212687</v>
+        <v>1.021746353237554</v>
       </c>
       <c r="K17">
-        <v>1.015665508364838</v>
+        <v>1.025506116315367</v>
       </c>
       <c r="L17">
-        <v>1.011853388456855</v>
+        <v>1.046792970332784</v>
       </c>
       <c r="M17">
-        <v>1.016201680231451</v>
+        <v>1.050428357142655</v>
       </c>
       <c r="N17">
-        <v>1.006111706676424</v>
+        <v>1.011350265462016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9788436702296281</v>
+        <v>1.015603893229879</v>
       </c>
       <c r="D18">
-        <v>1.002311017115915</v>
+        <v>1.022217205070733</v>
       </c>
       <c r="E18">
-        <v>0.9988934137069642</v>
+        <v>1.043686101240156</v>
       </c>
       <c r="F18">
-        <v>1.003339518610319</v>
+        <v>1.047336115555086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037259824789438</v>
+        <v>1.028978030657955</v>
       </c>
       <c r="J18">
-        <v>1.006730472599864</v>
+        <v>1.021844822081497</v>
       </c>
       <c r="K18">
-        <v>1.016089978274759</v>
+        <v>1.025589241920099</v>
       </c>
       <c r="L18">
-        <v>1.012731275649002</v>
+        <v>1.046983817469494</v>
       </c>
       <c r="M18">
-        <v>1.017100855523997</v>
+        <v>1.050621529224824</v>
       </c>
       <c r="N18">
-        <v>1.006272740463422</v>
+        <v>1.011383081687388</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9791589579850968</v>
+        <v>1.015665487282306</v>
       </c>
       <c r="D19">
-        <v>1.002523120062365</v>
+        <v>1.022260217984538</v>
       </c>
       <c r="E19">
-        <v>0.9992627068059545</v>
+        <v>1.043765641533973</v>
       </c>
       <c r="F19">
-        <v>1.003715654029014</v>
+        <v>1.047416389500118</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037326921348567</v>
+        <v>1.028986305443968</v>
       </c>
       <c r="J19">
-        <v>1.006893727765738</v>
+        <v>1.021878395395023</v>
       </c>
       <c r="K19">
-        <v>1.016234132404956</v>
+        <v>1.025617577245163</v>
       </c>
       <c r="L19">
-        <v>1.013029567201856</v>
+        <v>1.047048903721259</v>
       </c>
       <c r="M19">
-        <v>1.017406356309478</v>
+        <v>1.05068740485663</v>
       </c>
       <c r="N19">
-        <v>1.006327442059694</v>
+        <v>1.011394269912281</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9777445542837073</v>
+        <v>1.015390068324789</v>
       </c>
       <c r="D20">
-        <v>1.001571888179954</v>
+        <v>1.022067877822529</v>
       </c>
       <c r="E20">
-        <v>0.9976063379810581</v>
+        <v>1.043410015309085</v>
       </c>
       <c r="F20">
-        <v>1.002028486035932</v>
+        <v>1.047057468793306</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037025148048189</v>
+        <v>1.028949202409941</v>
       </c>
       <c r="J20">
-        <v>1.006161188131776</v>
+        <v>1.021728239684715</v>
       </c>
       <c r="K20">
-        <v>1.01558715402744</v>
+        <v>1.025490822026919</v>
       </c>
       <c r="L20">
-        <v>1.011691408039471</v>
+        <v>1.046757871286791</v>
       </c>
       <c r="M20">
-        <v>1.016035760495743</v>
+        <v>1.05039282884356</v>
       </c>
       <c r="N20">
-        <v>1.006081987037845</v>
+        <v>1.011344228569108</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9730674967982599</v>
+        <v>1.014495436104931</v>
       </c>
       <c r="D21">
-        <v>0.9984316183395328</v>
+        <v>1.021442984966467</v>
       </c>
       <c r="E21">
-        <v>0.9921343693714775</v>
+        <v>1.042255541722418</v>
       </c>
       <c r="F21">
-        <v>0.9964528550164055</v>
+        <v>1.045892049343196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036013720048002</v>
+        <v>1.028826889673778</v>
       </c>
       <c r="J21">
-        <v>1.003736066793137</v>
+        <v>1.021239934030529</v>
       </c>
       <c r="K21">
-        <v>1.013442765238009</v>
+        <v>1.025078154505087</v>
       </c>
       <c r="L21">
-        <v>1.007266306671312</v>
+        <v>1.045812553718999</v>
       </c>
       <c r="M21">
-        <v>1.011501742212103</v>
+        <v>1.049435758051652</v>
       </c>
       <c r="N21">
-        <v>1.005269324179929</v>
+        <v>1.011181453806105</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.97006386888022</v>
+        <v>1.013933552375296</v>
       </c>
       <c r="D22">
-        <v>0.9964192819200791</v>
+        <v>1.021050423744525</v>
       </c>
       <c r="E22">
-        <v>0.9886239488004868</v>
+        <v>1.041530987986155</v>
       </c>
       <c r="F22">
-        <v>0.9928744970063584</v>
+        <v>1.045160433774957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035353964264217</v>
+        <v>1.028748696627663</v>
       </c>
       <c r="J22">
-        <v>1.002176633678769</v>
+        <v>1.020932819237784</v>
       </c>
       <c r="K22">
-        <v>1.01206200884419</v>
+        <v>1.024818260061258</v>
       </c>
       <c r="L22">
-        <v>1.004424186991048</v>
+        <v>1.045218856719822</v>
       </c>
       <c r="M22">
-        <v>1.008588445533238</v>
+        <v>1.048834493613147</v>
       </c>
       <c r="N22">
-        <v>1.004746715294679</v>
+        <v>1.011079047410402</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9716622956259551</v>
+        <v>1.014231359506762</v>
       </c>
       <c r="D23">
-        <v>0.9974897438887751</v>
+        <v>1.021258495660013</v>
       </c>
       <c r="E23">
-        <v>0.9904917445488494</v>
+        <v>1.041914963149152</v>
       </c>
       <c r="F23">
-        <v>0.9947785729589748</v>
+        <v>1.04554816955055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035706010907396</v>
+        <v>1.028790270335764</v>
       </c>
       <c r="J23">
-        <v>1.003006689164329</v>
+        <v>1.021095635482526</v>
       </c>
       <c r="K23">
-        <v>1.012797125243189</v>
+        <v>1.024956075771396</v>
       </c>
       <c r="L23">
-        <v>1.005936704344041</v>
+        <v>1.045533523703546</v>
       </c>
       <c r="M23">
-        <v>1.010138953608024</v>
+        <v>1.049153189043383</v>
       </c>
       <c r="N23">
-        <v>1.005024892648547</v>
+        <v>1.011133340855495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9778219367050871</v>
+        <v>1.015405077127998</v>
       </c>
       <c r="D24">
-        <v>1.001623911808928</v>
+        <v>1.022078359762089</v>
       </c>
       <c r="E24">
-        <v>0.9976969382419938</v>
+        <v>1.043429392337526</v>
       </c>
       <c r="F24">
-        <v>1.002120778192423</v>
+        <v>1.04707702627603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037041709197005</v>
+        <v>1.028951231084078</v>
       </c>
       <c r="J24">
-        <v>1.00620127642487</v>
+        <v>1.02173642445582</v>
       </c>
       <c r="K24">
-        <v>1.015622569625559</v>
+        <v>1.02549773300928</v>
       </c>
       <c r="L24">
-        <v>1.011764619298566</v>
+        <v>1.046773730810161</v>
       </c>
       <c r="M24">
-        <v>1.016110752668154</v>
+        <v>1.050408882389197</v>
       </c>
       <c r="N24">
-        <v>1.006095419866933</v>
+        <v>1.011346956403932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9847125303669056</v>
+        <v>1.016769701820554</v>
       </c>
       <c r="D25">
-        <v>1.006264804997155</v>
+        <v>1.023031160732023</v>
       </c>
       <c r="E25">
-        <v>1.005774592236631</v>
+        <v>1.04519247119905</v>
       </c>
       <c r="F25">
-        <v>1.010345748825528</v>
+        <v>1.048856061370973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03849162913553</v>
+        <v>1.029132379241967</v>
       </c>
       <c r="J25">
-        <v>1.0097655637913</v>
+        <v>1.022479561588844</v>
       </c>
       <c r="K25">
-        <v>1.018766640200818</v>
+        <v>1.026124367079934</v>
       </c>
       <c r="L25">
-        <v>1.018283921642951</v>
+        <v>1.048215772256944</v>
       </c>
       <c r="M25">
-        <v>1.022785555560735</v>
+        <v>1.051868116654308</v>
       </c>
       <c r="N25">
-        <v>1.007289592517848</v>
+        <v>1.011594555366235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017860154984261</v>
+        <v>0.9900179301298755</v>
       </c>
       <c r="D2">
-        <v>1.023792172426138</v>
+        <v>1.009848736426448</v>
       </c>
       <c r="E2">
-        <v>1.046603232189801</v>
+        <v>1.012009813985765</v>
       </c>
       <c r="F2">
-        <v>1.050278911179785</v>
+        <v>1.016689399467857</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029272293840606</v>
+        <v>1.039571063857909</v>
       </c>
       <c r="J2">
-        <v>1.023071871476029</v>
+        <v>1.012501358226705</v>
       </c>
       <c r="K2">
-        <v>1.026622570117025</v>
+        <v>1.021172546934406</v>
       </c>
       <c r="L2">
-        <v>1.049368205708639</v>
+        <v>1.023304330695172</v>
       </c>
       <c r="M2">
-        <v>1.053033630876649</v>
+        <v>1.027921019645555</v>
       </c>
       <c r="N2">
-        <v>1.01179179074138</v>
+        <v>1.008205912241398</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018653072087143</v>
+        <v>0.9937673593635145</v>
       </c>
       <c r="D3">
-        <v>1.024345317934763</v>
+        <v>1.012386710283572</v>
       </c>
       <c r="E3">
-        <v>1.047630182861211</v>
+        <v>1.016426403979121</v>
       </c>
       <c r="F3">
-        <v>1.051314267519219</v>
+        <v>1.021179615629028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029371223387494</v>
+        <v>1.040311831663244</v>
       </c>
       <c r="J3">
-        <v>1.023501680761275</v>
+        <v>1.014429386632336</v>
       </c>
       <c r="K3">
-        <v>1.026983361458274</v>
+        <v>1.022863516578583</v>
       </c>
       <c r="L3">
-        <v>1.050206273090264</v>
+        <v>1.026853333065549</v>
       </c>
       <c r="M3">
-        <v>1.053880827045953</v>
+        <v>1.031548485765764</v>
       </c>
       <c r="N3">
-        <v>1.011934849430413</v>
+        <v>1.008851481490139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019166666266542</v>
+        <v>0.9961483101466033</v>
       </c>
       <c r="D4">
-        <v>1.024703499657061</v>
+        <v>1.014000417987602</v>
       </c>
       <c r="E4">
-        <v>1.048295892362158</v>
+        <v>1.019235929409864</v>
       </c>
       <c r="F4">
-        <v>1.051985243310545</v>
+        <v>1.024034469115022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029434002432631</v>
+        <v>1.040771770531735</v>
       </c>
       <c r="J4">
-        <v>1.023779669073545</v>
+        <v>1.015651058367349</v>
       </c>
       <c r="K4">
-        <v>1.02721637177825</v>
+        <v>1.023932756607258</v>
       </c>
       <c r="L4">
-        <v>1.050749154597482</v>
+        <v>1.029107607383903</v>
       </c>
       <c r="M4">
-        <v>1.054429443945295</v>
+        <v>1.03385122138345</v>
       </c>
       <c r="N4">
-        <v>1.012027345339751</v>
+        <v>1.009260433243361</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019382705088004</v>
+        <v>0.9971387782119225</v>
       </c>
       <c r="D5">
-        <v>1.024854139680082</v>
+        <v>1.014672160475925</v>
       </c>
       <c r="E5">
-        <v>1.048576043728</v>
+        <v>1.020405901671712</v>
       </c>
       <c r="F5">
-        <v>1.052267567166968</v>
+        <v>1.025222950276023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029460098475218</v>
+        <v>1.040960558344023</v>
       </c>
       <c r="J5">
-        <v>1.023896503826951</v>
+        <v>1.016158609383583</v>
       </c>
       <c r="K5">
-        <v>1.027314221424714</v>
+        <v>1.024376429895587</v>
       </c>
       <c r="L5">
-        <v>1.050977523655827</v>
+        <v>1.030045542255817</v>
       </c>
       <c r="M5">
-        <v>1.05466018297034</v>
+        <v>1.03480898180874</v>
       </c>
       <c r="N5">
-        <v>1.012066212823809</v>
+        <v>1.009430307542346</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019418986172532</v>
+        <v>0.9973044767942274</v>
       </c>
       <c r="D6">
-        <v>1.02487943629618</v>
+        <v>1.014784563249939</v>
       </c>
       <c r="E6">
-        <v>1.048623099178752</v>
+        <v>1.020601702817237</v>
       </c>
       <c r="F6">
-        <v>1.052314984954315</v>
+        <v>1.02542182725938</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029464462724589</v>
+        <v>1.040991990630241</v>
       </c>
       <c r="J6">
-        <v>1.023916119014441</v>
+        <v>1.016243479740069</v>
       </c>
       <c r="K6">
-        <v>1.027330644450144</v>
+        <v>1.0244505861736</v>
       </c>
       <c r="L6">
-        <v>1.051015876104969</v>
+        <v>1.030202462597142</v>
       </c>
       <c r="M6">
-        <v>1.054698930928176</v>
+        <v>1.034969198991189</v>
       </c>
       <c r="N6">
-        <v>1.012072737789932</v>
+        <v>1.009458711488219</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01916955250325</v>
+        <v>0.996161585592242</v>
       </c>
       <c r="D7">
-        <v>1.024705512281154</v>
+        <v>1.014009419792781</v>
       </c>
       <c r="E7">
-        <v>1.048299634631701</v>
+        <v>1.019251605924914</v>
       </c>
       <c r="F7">
-        <v>1.051989014772045</v>
+        <v>1.024050395087536</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029434352294121</v>
+        <v>1.040774310990628</v>
       </c>
       <c r="J7">
-        <v>1.023781230350549</v>
+        <v>1.015657863815433</v>
       </c>
       <c r="K7">
-        <v>1.027217679675423</v>
+        <v>1.023938707747178</v>
       </c>
       <c r="L7">
-        <v>1.050752205520562</v>
+        <v>1.0291201780433</v>
       </c>
       <c r="M7">
-        <v>1.054432526697999</v>
+        <v>1.033864059097343</v>
       </c>
       <c r="N7">
-        <v>1.012027864759416</v>
+        <v>1.009262711096345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018128015633248</v>
+        <v>0.9912946272931532</v>
       </c>
       <c r="D8">
-        <v>1.023979055758099</v>
+        <v>1.010712468928865</v>
       </c>
       <c r="E8">
-        <v>1.046950045078071</v>
+        <v>1.013512676779387</v>
       </c>
       <c r="F8">
-        <v>1.050628600507247</v>
+        <v>1.018217627641625</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029305982889699</v>
+        <v>1.03982546790981</v>
       </c>
       <c r="J8">
-        <v>1.023217153166532</v>
+        <v>1.013158403325511</v>
       </c>
       <c r="K8">
-        <v>1.026744592846055</v>
+        <v>1.02174926216778</v>
       </c>
       <c r="L8">
-        <v>1.049651310534224</v>
+        <v>1.024512669072141</v>
       </c>
       <c r="M8">
-        <v>1.053319856263462</v>
+        <v>1.029156356868017</v>
       </c>
       <c r="N8">
-        <v>1.011840152887739</v>
+        <v>1.008425934117974</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016296775597048</v>
+        <v>0.9823566841889178</v>
       </c>
       <c r="D9">
-        <v>1.022701010584787</v>
+        <v>1.004676285129645</v>
       </c>
       <c r="E9">
-        <v>1.04458116327676</v>
+        <v>1.003010523696635</v>
       </c>
       <c r="F9">
-        <v>1.048239325797189</v>
+        <v>1.007532086017632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029070348029807</v>
+        <v>1.038001632881106</v>
       </c>
       <c r="J9">
-        <v>1.022222253644609</v>
+        <v>1.008548235283025</v>
       </c>
       <c r="K9">
-        <v>1.025907590562884</v>
+        <v>1.017693945762506</v>
       </c>
       <c r="L9">
-        <v>1.047715999971992</v>
+        <v>1.016054945360868</v>
       </c>
       <c r="M9">
-        <v>1.051362487524463</v>
+        <v>1.020504131061943</v>
       </c>
       <c r="N9">
-        <v>1.011508842385202</v>
+        <v>1.006881779005154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015078785971291</v>
+        <v>0.9761316527657465</v>
       </c>
       <c r="D10">
-        <v>1.021850470584718</v>
+        <v>1.000488040825474</v>
       </c>
       <c r="E10">
-        <v>1.043008203591826</v>
+        <v>0.9957184431547251</v>
       </c>
       <c r="F10">
-        <v>1.046651890636119</v>
+        <v>1.000105150224208</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028906953157379</v>
+        <v>1.036678646587568</v>
       </c>
       <c r="J10">
-        <v>1.021558433001564</v>
+        <v>1.005325342984904</v>
       </c>
       <c r="K10">
-        <v>1.025347397387447</v>
+        <v>1.014848489131909</v>
       </c>
       <c r="L10">
-        <v>1.046428948141566</v>
+        <v>1.01016543514528</v>
       </c>
       <c r="M10">
-        <v>1.05005985802854</v>
+        <v>1.014472506410777</v>
       </c>
       <c r="N10">
-        <v>1.011287631148837</v>
+        <v>1.005801904323501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014552075494914</v>
+        <v>0.9733674068997109</v>
       </c>
       <c r="D11">
-        <v>1.021482552432591</v>
+        <v>0.998632738895244</v>
       </c>
       <c r="E11">
-        <v>1.042328600901717</v>
+        <v>0.9924850311346981</v>
       </c>
       <c r="F11">
-        <v>1.045965812444464</v>
+        <v>0.9968102437951483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028834713537922</v>
+        <v>1.036079172640261</v>
       </c>
       <c r="J11">
-        <v>1.021270873858945</v>
+        <v>1.003891694059279</v>
       </c>
       <c r="K11">
-        <v>1.025104322325013</v>
+        <v>1.013580485902227</v>
       </c>
       <c r="L11">
-        <v>1.04587240075148</v>
+        <v>1.007550074071221</v>
       </c>
       <c r="M11">
-        <v>1.049496360037029</v>
+        <v>1.011792565994021</v>
       </c>
       <c r="N11">
-        <v>1.011191769283273</v>
+        <v>1.005321477739965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014356536561561</v>
+        <v>0.9723298054295818</v>
       </c>
       <c r="D12">
-        <v>1.0213459487802</v>
+        <v>0.9979370662106425</v>
       </c>
       <c r="E12">
-        <v>1.042076392471236</v>
+        <v>0.9912719626525588</v>
       </c>
       <c r="F12">
-        <v>1.045711167650365</v>
+        <v>0.9955738573361866</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028807657481865</v>
+        <v>1.035852392745497</v>
       </c>
       <c r="J12">
-        <v>1.021164044616794</v>
+        <v>1.003353204489059</v>
       </c>
       <c r="K12">
-        <v>1.025013958312579</v>
+        <v>1.013103895784248</v>
       </c>
       <c r="L12">
-        <v>1.04566578855496</v>
+        <v>1.006568310437247</v>
       </c>
       <c r="M12">
-        <v>1.049287135349576</v>
+        <v>1.010786349387143</v>
       </c>
       <c r="N12">
-        <v>1.011156150917967</v>
+        <v>1.005141018772066</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014398475559456</v>
+        <v>0.9725528733593989</v>
       </c>
       <c r="D13">
-        <v>1.021375248095908</v>
+        <v>0.998086590184427</v>
       </c>
       <c r="E13">
-        <v>1.04213048178009</v>
+        <v>0.9915327252043926</v>
       </c>
       <c r="F13">
-        <v>1.045765780971978</v>
+        <v>0.9958396433948034</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028813471181433</v>
+        <v>1.035901225575052</v>
       </c>
       <c r="J13">
-        <v>1.021186960601979</v>
+        <v>1.003468986471656</v>
       </c>
       <c r="K13">
-        <v>1.025033345080206</v>
+        <v>1.013206382675091</v>
       </c>
       <c r="L13">
-        <v>1.045710102385994</v>
+        <v>1.006779376845422</v>
       </c>
       <c r="M13">
-        <v>1.049332010957267</v>
+        <v>1.011002682234117</v>
       </c>
       <c r="N13">
-        <v>1.011163791669456</v>
+        <v>1.005179819983869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014535910038956</v>
+        <v>0.9732818625570816</v>
       </c>
       <c r="D14">
-        <v>1.021471259548355</v>
+        <v>0.9985753691385529</v>
       </c>
       <c r="E14">
-        <v>1.042307748652428</v>
+        <v>0.9923850078388344</v>
       </c>
       <c r="F14">
-        <v>1.045944759437897</v>
+        <v>0.9967083028043008</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028832481622496</v>
+        <v>1.036060511420359</v>
       </c>
       <c r="J14">
-        <v>1.021262043660237</v>
+        <v>1.003847305552464</v>
       </c>
       <c r="K14">
-        <v>1.025096854333056</v>
+        <v>1.013541206217258</v>
       </c>
       <c r="L14">
-        <v>1.04585531978614</v>
+        <v>1.007469134419237</v>
       </c>
       <c r="M14">
-        <v>1.049479063748487</v>
+        <v>1.011709614593</v>
       </c>
       <c r="N14">
-        <v>1.011188825280123</v>
+        <v>1.005306602364759</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014620601890136</v>
+        <v>0.9737295651226032</v>
       </c>
       <c r="D15">
-        <v>1.021530423048647</v>
+        <v>0.9988756486502829</v>
       </c>
       <c r="E15">
-        <v>1.042416998636491</v>
+        <v>0.9929085128707383</v>
       </c>
       <c r="F15">
-        <v>1.046055059876761</v>
+        <v>0.9972418346867941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02884416504484</v>
+        <v>1.036158104839351</v>
       </c>
       <c r="J15">
-        <v>1.02130830259486</v>
+        <v>1.004079602041693</v>
       </c>
       <c r="K15">
-        <v>1.025135974561732</v>
+        <v>1.013746754065006</v>
       </c>
       <c r="L15">
-        <v>1.045944808190635</v>
+        <v>1.007892735829537</v>
       </c>
       <c r="M15">
-        <v>1.049569678930006</v>
+        <v>1.012143736042923</v>
       </c>
       <c r="N15">
-        <v>1.01120424786846</v>
+        <v>1.005384448761534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015113756620234</v>
+        <v>0.976313615340345</v>
       </c>
       <c r="D16">
-        <v>1.021874896072725</v>
+        <v>1.000610269638448</v>
       </c>
       <c r="E16">
-        <v>1.043053338258629</v>
+        <v>0.995931381960496</v>
       </c>
       <c r="F16">
-        <v>1.046697450697222</v>
+        <v>1.000322104007298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028911716151467</v>
+        <v>1.036717861746495</v>
       </c>
       <c r="J16">
-        <v>1.021577514913179</v>
+        <v>1.005419666166874</v>
       </c>
       <c r="K16">
-        <v>1.025363518881437</v>
+        <v>1.014931868839965</v>
       </c>
       <c r="L16">
-        <v>1.046465900334925</v>
+        <v>1.010337592162971</v>
       </c>
       <c r="M16">
-        <v>1.050097267194315</v>
+        <v>1.014648884549065</v>
       </c>
       <c r="N16">
-        <v>1.01129399162009</v>
+        <v>1.005833511627453</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015423284605628</v>
+        <v>0.9779157634763728</v>
       </c>
       <c r="D17">
-        <v>1.022091075539272</v>
+        <v>1.001686993744837</v>
       </c>
       <c r="E17">
-        <v>1.043452899400785</v>
+        <v>0.9978067948189422</v>
       </c>
       <c r="F17">
-        <v>1.047100752109539</v>
+        <v>1.00223268515075</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028953691065352</v>
+        <v>1.037061781867493</v>
       </c>
       <c r="J17">
-        <v>1.021746353237554</v>
+        <v>1.00624988212687</v>
       </c>
       <c r="K17">
-        <v>1.025506116315367</v>
+        <v>1.015665508364838</v>
       </c>
       <c r="L17">
-        <v>1.046792970332784</v>
+        <v>1.011853388456856</v>
       </c>
       <c r="M17">
-        <v>1.050428357142655</v>
+        <v>1.016201680231452</v>
       </c>
       <c r="N17">
-        <v>1.011350265462016</v>
+        <v>1.006111706676424</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015603893229879</v>
+        <v>0.9788436702296279</v>
       </c>
       <c r="D18">
-        <v>1.022217205070733</v>
+        <v>1.002311017115915</v>
       </c>
       <c r="E18">
-        <v>1.043686101240156</v>
+        <v>0.9988934137069638</v>
       </c>
       <c r="F18">
-        <v>1.047336115555086</v>
+        <v>1.003339518610318</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028978030657955</v>
+        <v>1.037259824789438</v>
       </c>
       <c r="J18">
-        <v>1.021844822081497</v>
+        <v>1.006730472599864</v>
       </c>
       <c r="K18">
-        <v>1.025589241920099</v>
+        <v>1.016089978274759</v>
       </c>
       <c r="L18">
-        <v>1.046983817469494</v>
+        <v>1.012731275649002</v>
       </c>
       <c r="M18">
-        <v>1.050621529224824</v>
+        <v>1.017100855523997</v>
       </c>
       <c r="N18">
-        <v>1.011383081687388</v>
+        <v>1.006272740463422</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015665487282306</v>
+        <v>0.9791589579850964</v>
       </c>
       <c r="D19">
-        <v>1.022260217984538</v>
+        <v>1.002523120062365</v>
       </c>
       <c r="E19">
-        <v>1.043765641533973</v>
+        <v>0.9992627068059539</v>
       </c>
       <c r="F19">
-        <v>1.047416389500118</v>
+        <v>1.003715654029014</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028986305443968</v>
+        <v>1.037326921348567</v>
       </c>
       <c r="J19">
-        <v>1.021878395395023</v>
+        <v>1.006893727765737</v>
       </c>
       <c r="K19">
-        <v>1.025617577245163</v>
+        <v>1.016234132404956</v>
       </c>
       <c r="L19">
-        <v>1.047048903721259</v>
+        <v>1.013029567201855</v>
       </c>
       <c r="M19">
-        <v>1.05068740485663</v>
+        <v>1.017406356309478</v>
       </c>
       <c r="N19">
-        <v>1.011394269912281</v>
+        <v>1.006327442059694</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015390068324789</v>
+        <v>0.9777445542837074</v>
       </c>
       <c r="D20">
-        <v>1.022067877822529</v>
+        <v>1.001571888179954</v>
       </c>
       <c r="E20">
-        <v>1.043410015309085</v>
+        <v>0.9976063379810587</v>
       </c>
       <c r="F20">
-        <v>1.047057468793306</v>
+        <v>1.002028486035932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028949202409941</v>
+        <v>1.037025148048189</v>
       </c>
       <c r="J20">
-        <v>1.021728239684715</v>
+        <v>1.006161188131776</v>
       </c>
       <c r="K20">
-        <v>1.025490822026919</v>
+        <v>1.01558715402744</v>
       </c>
       <c r="L20">
-        <v>1.046757871286791</v>
+        <v>1.011691408039471</v>
       </c>
       <c r="M20">
-        <v>1.05039282884356</v>
+        <v>1.016035760495743</v>
       </c>
       <c r="N20">
-        <v>1.011344228569108</v>
+        <v>1.006081987037845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014495436104931</v>
+        <v>0.9730674967982604</v>
       </c>
       <c r="D21">
-        <v>1.021442984966467</v>
+        <v>0.9984316183395333</v>
       </c>
       <c r="E21">
-        <v>1.042255541722418</v>
+        <v>0.9921343693714783</v>
       </c>
       <c r="F21">
-        <v>1.045892049343196</v>
+        <v>0.996452855016406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028826889673778</v>
+        <v>1.036013720048002</v>
       </c>
       <c r="J21">
-        <v>1.021239934030529</v>
+        <v>1.003736066793138</v>
       </c>
       <c r="K21">
-        <v>1.025078154505087</v>
+        <v>1.013442765238009</v>
       </c>
       <c r="L21">
-        <v>1.045812553718999</v>
+        <v>1.007266306671312</v>
       </c>
       <c r="M21">
-        <v>1.049435758051652</v>
+        <v>1.011501742212104</v>
       </c>
       <c r="N21">
-        <v>1.011181453806105</v>
+        <v>1.005269324179929</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013933552375296</v>
+        <v>0.9700638688802198</v>
       </c>
       <c r="D22">
-        <v>1.021050423744525</v>
+        <v>0.9964192819200789</v>
       </c>
       <c r="E22">
-        <v>1.041530987986155</v>
+        <v>0.9886239488004867</v>
       </c>
       <c r="F22">
-        <v>1.045160433774957</v>
+        <v>0.9928744970063584</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028748696627663</v>
+        <v>1.035353964264217</v>
       </c>
       <c r="J22">
-        <v>1.020932819237784</v>
+        <v>1.002176633678769</v>
       </c>
       <c r="K22">
-        <v>1.024818260061258</v>
+        <v>1.01206200884419</v>
       </c>
       <c r="L22">
-        <v>1.045218856719822</v>
+        <v>1.004424186991048</v>
       </c>
       <c r="M22">
-        <v>1.048834493613147</v>
+        <v>1.008588445533238</v>
       </c>
       <c r="N22">
-        <v>1.011079047410402</v>
+        <v>1.004746715294678</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014231359506762</v>
+        <v>0.9716622956259546</v>
       </c>
       <c r="D23">
-        <v>1.021258495660013</v>
+        <v>0.9974897438887749</v>
       </c>
       <c r="E23">
-        <v>1.041914963149152</v>
+        <v>0.9904917445488488</v>
       </c>
       <c r="F23">
-        <v>1.04554816955055</v>
+        <v>0.994778572958974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028790270335764</v>
+        <v>1.035706010907396</v>
       </c>
       <c r="J23">
-        <v>1.021095635482526</v>
+        <v>1.003006689164328</v>
       </c>
       <c r="K23">
-        <v>1.024956075771396</v>
+        <v>1.012797125243188</v>
       </c>
       <c r="L23">
-        <v>1.045533523703546</v>
+        <v>1.005936704344041</v>
       </c>
       <c r="M23">
-        <v>1.049153189043383</v>
+        <v>1.010138953608023</v>
       </c>
       <c r="N23">
-        <v>1.011133340855495</v>
+        <v>1.005024892648547</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015405077127998</v>
+        <v>0.9778219367050868</v>
       </c>
       <c r="D24">
-        <v>1.022078359762089</v>
+        <v>1.001623911808928</v>
       </c>
       <c r="E24">
-        <v>1.043429392337526</v>
+        <v>0.9976969382419935</v>
       </c>
       <c r="F24">
-        <v>1.04707702627603</v>
+        <v>1.002120778192422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028951231084078</v>
+        <v>1.037041709197005</v>
       </c>
       <c r="J24">
-        <v>1.02173642445582</v>
+        <v>1.00620127642487</v>
       </c>
       <c r="K24">
-        <v>1.02549773300928</v>
+        <v>1.015622569625558</v>
       </c>
       <c r="L24">
-        <v>1.046773730810161</v>
+        <v>1.011764619298566</v>
       </c>
       <c r="M24">
-        <v>1.050408882389197</v>
+        <v>1.016110752668153</v>
       </c>
       <c r="N24">
-        <v>1.011346956403932</v>
+        <v>1.006095419866933</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016769701820554</v>
+        <v>0.9847125303669054</v>
       </c>
       <c r="D25">
-        <v>1.023031160732023</v>
+        <v>1.006264804997155</v>
       </c>
       <c r="E25">
-        <v>1.04519247119905</v>
+        <v>1.005774592236631</v>
       </c>
       <c r="F25">
-        <v>1.048856061370973</v>
+        <v>1.010345748825528</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029132379241967</v>
+        <v>1.038491629135529</v>
       </c>
       <c r="J25">
-        <v>1.022479561588844</v>
+        <v>1.009765563791299</v>
       </c>
       <c r="K25">
-        <v>1.026124367079934</v>
+        <v>1.018766640200817</v>
       </c>
       <c r="L25">
-        <v>1.048215772256944</v>
+        <v>1.018283921642951</v>
       </c>
       <c r="M25">
-        <v>1.051868116654308</v>
+        <v>1.022785555560735</v>
       </c>
       <c r="N25">
-        <v>1.011594555366235</v>
+        <v>1.007289592517848</v>
       </c>
     </row>
   </sheetData>
